--- a/General/InterfacesBetweenModules.xlsx
+++ b/General/InterfacesBetweenModules.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="10200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GUI-RQH" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>Proposed Interface Type</t>
   </si>
@@ -68,41 +68,149 @@
     <t>Login the application</t>
   </si>
   <si>
-    <t>username
-password
-type</t>
-  </si>
-  <si>
-    <t>username
-password has
-type</t>
-  </si>
-  <si>
-    <t>status
-message
+    <t>(1) Only if login successful</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>GUI-RQH2</t>
+  </si>
+  <si>
+    <t>Logout of the application</t>
+  </si>
+  <si>
+    <t>GUI-RQH3</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>View Settings</t>
+  </si>
+  <si>
+    <t>GUI-RQH4</t>
+  </si>
+  <si>
+    <t>Change Settings</t>
+  </si>
+  <si>
+    <t>*parameters</t>
+  </si>
+  <si>
+    <t>command(*parameters)</t>
+  </si>
+  <si>
+    <t>GUI-RQH5</t>
+  </si>
+  <si>
+    <t>View Projects</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>GUI-RQH6</t>
+  </si>
+  <si>
+    <t>Create Project</t>
+  </si>
+  <si>
+    <t>GUI-RQH7</t>
+  </si>
+  <si>
+    <t>Create Objective</t>
+  </si>
+  <si>
+    <t>GUI-RQH8</t>
+  </si>
+  <si>
+    <t>Create Task</t>
+  </si>
+  <si>
+    <t>GUI-RQH9</t>
+  </si>
+  <si>
+    <t>Remove Project</t>
+  </si>
+  <si>
+    <t>GUI-RQH10</t>
+  </si>
+  <si>
+    <t>Remove Objective</t>
+  </si>
+  <si>
+    <t>GUI-RQH11</t>
+  </si>
+  <si>
+    <t>Remove Task</t>
+  </si>
+  <si>
+    <t>GUI-RQH12</t>
+  </si>
+  <si>
+    <t>Synchronize Project</t>
+  </si>
+  <si>
+    <t>Username
+Password
+Type</t>
+  </si>
+  <si>
+    <t>Username
+Password hash
+Type</t>
+  </si>
+  <si>
+    <t>Status
+Message
 Notifier(*1)</t>
   </si>
   <si>
-    <t>(1) Only if login successful</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>GUI-RQH2</t>
-  </si>
-  <si>
-    <t>Logout of the application</t>
-  </si>
-  <si>
-    <t>command(*1)</t>
-  </si>
-  <si>
-    <t>message(*2)</t>
-  </si>
-  <si>
-    <t>(1) Command of logout
-(2) Message response</t>
+    <t>GUI-RQH13</t>
+  </si>
+  <si>
+    <t>Create account</t>
+  </si>
+  <si>
+    <t>Web broser(*1)</t>
+  </si>
+  <si>
+    <t>(1) Only if account type 
+is online</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>GUI-RQH14</t>
+  </si>
+  <si>
+    <t>Update Project</t>
+  </si>
+  <si>
+    <t>GUI-RQH15</t>
+  </si>
+  <si>
+    <t>GUI-RQH16</t>
+  </si>
+  <si>
+    <t>Update Objective</t>
+  </si>
+  <si>
+    <t>Update Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing RTBS </t>
+  </si>
+  <si>
+    <t>*RTBS = Remains to be seen</t>
   </si>
 </sst>
 </file>
@@ -140,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -189,14 +297,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,8 +383,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,93 +718,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="Z1" s="7"/>
+      <c r="AA1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -633,39 +824,40 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -673,41 +865,42 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="7" t="s">
-        <v>23</v>
+      <c r="V4" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -734,18 +927,1178 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="13"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="V4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="J4:L5"/>
-    <mergeCell ref="M4:O5"/>
+  <mergeCells count="155">
+    <mergeCell ref="P30:R31"/>
+    <mergeCell ref="S30:U31"/>
+    <mergeCell ref="V30:X31"/>
+    <mergeCell ref="Y30:Z31"/>
+    <mergeCell ref="A32:C33"/>
+    <mergeCell ref="D32:F33"/>
+    <mergeCell ref="G32:I33"/>
+    <mergeCell ref="J32:L33"/>
+    <mergeCell ref="M32:O33"/>
+    <mergeCell ref="P32:R33"/>
+    <mergeCell ref="S32:U33"/>
+    <mergeCell ref="V32:X33"/>
+    <mergeCell ref="Y32:Z33"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:I31"/>
+    <mergeCell ref="J30:L31"/>
+    <mergeCell ref="M30:O31"/>
+    <mergeCell ref="P26:R27"/>
+    <mergeCell ref="S26:U27"/>
+    <mergeCell ref="V26:X27"/>
+    <mergeCell ref="Y26:Z27"/>
+    <mergeCell ref="A28:C29"/>
+    <mergeCell ref="D28:F29"/>
+    <mergeCell ref="G28:I29"/>
+    <mergeCell ref="J28:L29"/>
+    <mergeCell ref="M28:O29"/>
+    <mergeCell ref="P28:R29"/>
+    <mergeCell ref="S28:U29"/>
+    <mergeCell ref="V28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="D26:F27"/>
+    <mergeCell ref="G26:I27"/>
+    <mergeCell ref="J26:L27"/>
+    <mergeCell ref="M26:O27"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="G24:I25"/>
+    <mergeCell ref="J24:L25"/>
+    <mergeCell ref="M24:O25"/>
+    <mergeCell ref="P24:R25"/>
+    <mergeCell ref="S24:U25"/>
+    <mergeCell ref="V24:X25"/>
+    <mergeCell ref="Y24:Z25"/>
+    <mergeCell ref="P22:R23"/>
+    <mergeCell ref="S22:U23"/>
+    <mergeCell ref="V22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="J22:L23"/>
+    <mergeCell ref="M22:O23"/>
+    <mergeCell ref="P18:R19"/>
+    <mergeCell ref="S18:U19"/>
+    <mergeCell ref="V18:X19"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="J20:L21"/>
+    <mergeCell ref="M20:O21"/>
+    <mergeCell ref="P20:R21"/>
+    <mergeCell ref="S20:U21"/>
+    <mergeCell ref="V20:X21"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="J18:L19"/>
+    <mergeCell ref="M18:O19"/>
+    <mergeCell ref="P14:R15"/>
+    <mergeCell ref="S14:U15"/>
+    <mergeCell ref="V14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="J16:L17"/>
+    <mergeCell ref="M16:O17"/>
+    <mergeCell ref="P16:R17"/>
+    <mergeCell ref="S16:U17"/>
+    <mergeCell ref="V16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="J14:L15"/>
+    <mergeCell ref="M14:O15"/>
+    <mergeCell ref="P10:R11"/>
+    <mergeCell ref="S10:U11"/>
+    <mergeCell ref="V10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="J12:L13"/>
+    <mergeCell ref="M12:O13"/>
+    <mergeCell ref="P12:R13"/>
+    <mergeCell ref="S12:U13"/>
+    <mergeCell ref="V12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="D10:F11"/>
+    <mergeCell ref="G10:I11"/>
+    <mergeCell ref="J10:L11"/>
+    <mergeCell ref="M10:O11"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="J8:L9"/>
+    <mergeCell ref="M8:O9"/>
+    <mergeCell ref="P8:R9"/>
+    <mergeCell ref="S8:U9"/>
+    <mergeCell ref="V8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="P6:R7"/>
+    <mergeCell ref="S6:U7"/>
+    <mergeCell ref="V6:X7"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V1:X2"/>
+    <mergeCell ref="Y1:Z2"/>
     <mergeCell ref="P4:R5"/>
     <mergeCell ref="S4:U5"/>
     <mergeCell ref="A3:C3"/>
@@ -754,17 +2107,15 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V1:X2"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="J4:L5"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="V4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
